--- a/data/trans_orig/IP1007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{264A69E9-3E82-4E7B-852E-9D3D79E33A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{471B61EA-4A24-4ACE-B049-7F8921BDD8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C98E08C6-1A29-4061-A4FA-125587752F9A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{39184AF3-1384-4B9A-9187-9FD3306851BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,6 +106,57 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -151,57 +202,6 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
@@ -277,6 +277,36 @@
     <t>0,71%</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
     <t>98,72%</t>
   </si>
   <si>
@@ -301,36 +331,6 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -394,6 +394,18 @@
     <t>2,69%</t>
   </si>
   <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
     <t>99,77%</t>
   </si>
   <si>
@@ -404,18 +416,6 @@
   </si>
   <si>
     <t>0,51%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -831,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA2F4EC-81F5-4825-967D-F16EB0B632B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2FE697-E3CF-4C27-A39E-2D0BB5D693C9}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1104,10 +1104,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>420</v>
+        <v>327</v>
       </c>
       <c r="D7" s="7">
-        <v>280303</v>
+        <v>215968</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1116,37 +1116,37 @@
         <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>392</v>
+        <v>303</v>
       </c>
       <c r="I7" s="7">
-        <v>264389</v>
+        <v>204698</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>812</v>
+        <v>630</v>
       </c>
       <c r="N7" s="7">
-        <v>544692</v>
+        <v>420666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1155,49 +1155,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>1195</v>
+        <v>2073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>1214</v>
+        <v>524</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>2409</v>
+        <v>2597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1206,10 +1206,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1221,10 +1221,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1236,10 +1236,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1253,55 +1253,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>327</v>
+        <v>420</v>
       </c>
       <c r="D10" s="7">
-        <v>215968</v>
+        <v>280303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="I10" s="7">
-        <v>204698</v>
+        <v>264389</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>630</v>
+        <v>812</v>
       </c>
       <c r="N10" s="7">
-        <v>420666</v>
+        <v>544692</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,25 +1310,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2073</v>
+        <v>1195</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>524</v>
+        <v>1214</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>49</v>
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>2597</v>
+        <v>2409</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>51</v>
@@ -1361,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1376,10 +1376,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1391,10 +1391,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1435,7 +1435,7 @@
         <v>679283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>57</v>
@@ -1486,7 +1486,7 @@
         <v>1738</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>65</v>
@@ -1577,7 +1577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2675BFD6-4A95-4812-B093-D7296F00E0B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61E83F2-AABA-48F1-992A-DA706B4525B0}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1850,46 +1850,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>397</v>
+        <v>332</v>
       </c>
       <c r="D7" s="7">
-        <v>269667</v>
+        <v>240100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
+        <v>318</v>
+      </c>
+      <c r="I7" s="7">
+        <v>227282</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>362</v>
-      </c>
-      <c r="I7" s="7">
-        <v>254202</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>759</v>
+        <v>650</v>
       </c>
       <c r="N7" s="7">
-        <v>523869</v>
+        <v>467382</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1901,49 +1901,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>687</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>896</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>687</v>
+        <v>896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1967,10 +1967,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1982,10 +1982,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1999,52 +1999,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="D10" s="7">
-        <v>240100</v>
+        <v>269667</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="I10" s="7">
-        <v>227282</v>
+        <v>254202</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>650</v>
+        <v>759</v>
       </c>
       <c r="N10" s="7">
-        <v>467382</v>
+        <v>523869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2056,31 +2056,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>687</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>896</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>94</v>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>896</v>
+        <v>687</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>95</v>
@@ -2107,10 +2107,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2122,10 +2122,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2137,10 +2137,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2323,7 +2323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DF9EFF-13A4-4179-AA8E-5FB91238EE8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79BFBDE-8CD7-47A3-9FFF-45379BDC224D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2462,7 +2462,7 @@
         <v>200105</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>114</v>
@@ -2513,7 +2513,7 @@
         <v>1163</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
@@ -2596,46 +2596,46 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>280993</v>
+        <v>249426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I7" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="7">
+        <v>722</v>
+      </c>
+      <c r="N7" s="7">
+        <v>484759</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>755</v>
-      </c>
-      <c r="N7" s="7">
-        <v>548763</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2650,16 +2650,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2674,22 +2674,22 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,10 +2698,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2713,10 +2713,10 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2728,10 +2728,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2745,52 +2745,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D10" s="7">
-        <v>249426</v>
+        <v>280993</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I10" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>722</v>
+        <v>755</v>
       </c>
       <c r="N10" s="7">
-        <v>484759</v>
+        <v>548763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2805,16 +2805,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2829,22 +2829,22 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,10 +2853,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2868,10 +2868,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2883,10 +2883,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2912,7 +2912,7 @@
         <v>742891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>74</v>
@@ -2963,7 +2963,7 @@
         <v>1953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>65</v>

--- a/data/trans_orig/IP1007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471B61EA-4A24-4ACE-B049-7F8921BDD8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12BFA93B-DACB-4CE7-89D7-576F045D182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{39184AF3-1384-4B9A-9187-9FD3306851BD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{199CA738-F152-4B76-A7F7-806E3E31C5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="150">
   <si>
     <t>Menores según si padecen trastornos convulsivos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -76,346 +94,391 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,43%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -424,22 +487,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>99,46%</t>
   </si>
 </sst>
 </file>
@@ -450,7 +498,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -546,39 +594,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -630,7 +678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -741,13 +789,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -756,6 +797,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -820,19 +868,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2FE697-E3CF-4C27-A39E-2D0BB5D693C9}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C2D7D1-3312-4E5E-88A8-84C9B6EC8AB4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -949,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>223161</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -964,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>210196</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>433357</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1000,10 +1068,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>121380</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1015,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>227551</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1051,49 +1119,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1104,49 +1172,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>327</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>215968</v>
+        <v>1426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>524</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7">
-        <v>303</v>
-      </c>
-      <c r="I7" s="7">
-        <v>204698</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1949</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>630</v>
-      </c>
-      <c r="N7" s="7">
-        <v>420666</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1155,49 +1223,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="D8" s="7">
-        <v>2073</v>
+        <v>252330</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
+        <v>378</v>
+      </c>
+      <c r="I8" s="7">
+        <v>252681</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="7">
+        <v>758</v>
+      </c>
+      <c r="N8" s="7">
+        <v>505012</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>524</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="7">
-        <v>4</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2597</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1206,102 +1274,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>420</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>280303</v>
+        <v>1200</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1200</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>392</v>
-      </c>
-      <c r="I10" s="7">
-        <v>264389</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>812</v>
-      </c>
-      <c r="N10" s="7">
-        <v>544692</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,49 +1378,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7">
-        <v>1195</v>
+        <v>140315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>1214</v>
+        <v>127548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>401</v>
+      </c>
+      <c r="N11" s="7">
+        <v>267863</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2409</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,102 +1429,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1081</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>719432</v>
+        <v>642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>1015</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>679283</v>
+        <v>1214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>2096</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1398715</v>
+        <v>1857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,49 +1533,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>309</v>
       </c>
       <c r="D14" s="7">
-        <v>3268</v>
+        <v>205407</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>284</v>
       </c>
       <c r="I14" s="7">
-        <v>1738</v>
+        <v>192883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>593</v>
       </c>
       <c r="N14" s="7">
-        <v>5006</v>
+        <v>398289</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,55 +1584,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3268</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1738</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5006</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1081</v>
+      </c>
+      <c r="D17" s="7">
+        <v>719432</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="I17" s="7">
+        <v>679283</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2096</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1398715</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1577,8 +1806,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61E83F2-AABA-48F1-992A-DA706B4525B0}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EBF14A-628E-47F6-AEC2-3C72204B2321}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1594,7 +1823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1695,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>237688</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1707,37 +1936,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
-        <v>336</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>223980</v>
+        <v>568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>568</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>672</v>
-      </c>
-      <c r="N4" s="7">
-        <v>461668</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,49 +1975,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>144513</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="I5" s="7">
-        <v>568</v>
+        <v>145713</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>422</v>
       </c>
       <c r="N5" s="7">
-        <v>568</v>
+        <v>290226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,49 +2026,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,49 +2079,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>240100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
-        <v>318</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>227282</v>
+        <v>896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>896</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>650</v>
-      </c>
-      <c r="N7" s="7">
-        <v>467382</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,49 +2130,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>267101</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="I8" s="7">
-        <v>896</v>
+        <v>233580</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>707</v>
       </c>
       <c r="N8" s="7">
-        <v>896</v>
+        <v>500680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,102 +2181,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>269667</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>254202</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>523869</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,49 +2285,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>687</v>
+        <v>158571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>154834</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>448</v>
       </c>
       <c r="N11" s="7">
-        <v>687</v>
+        <v>313405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,99 +2336,99 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1065</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>747455</v>
+        <v>687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I13" s="7">
-        <v>705464</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>687</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2081</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1452919</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>103</v>
@@ -2211,49 +2440,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="D14" s="7">
-        <v>687</v>
+        <v>177270</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>243</v>
+      </c>
+      <c r="I14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1464</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>504</v>
+      </c>
+      <c r="N14" s="7">
+        <v>348607</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="7">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2151</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,55 +2491,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>687</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1464</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2151</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1065</v>
+      </c>
+      <c r="D17" s="7">
+        <v>747455</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I17" s="7">
+        <v>705464</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2081</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1452919</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2323,8 +2713,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79BFBDE-8CD7-47A3-9FFF-45379BDC224D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB183DF2-50F0-483B-AC1D-DC6FB1F1C387}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2340,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2441,49 +2831,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>212471</v>
+        <v>692</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>325</v>
-      </c>
-      <c r="I4" s="7">
-        <v>200105</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>692</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>645</v>
-      </c>
-      <c r="N4" s="7">
-        <v>412576</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,49 +2882,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>692</v>
+        <v>123472</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>1163</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>397</v>
+      </c>
+      <c r="N5" s="7">
+        <v>255126</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1855</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,49 +2933,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,49 +2986,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>249426</v>
+        <v>626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1163</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7">
-        <v>360</v>
-      </c>
-      <c r="I7" s="7">
-        <v>235333</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1789</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>722</v>
-      </c>
-      <c r="N7" s="7">
-        <v>484759</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,49 +3037,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>626</v>
+        <v>257435</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>209354</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>710</v>
       </c>
       <c r="N8" s="7">
-        <v>626</v>
+        <v>466789</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,102 +3088,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>280993</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>267770</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>548763</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,49 +3192,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>636</v>
+        <v>188572</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>188899</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="N11" s="7">
-        <v>636</v>
+        <v>377471</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,102 +3243,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1062</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>742891</v>
+        <v>636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
-        <v>1060</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>703208</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>636</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7">
-        <v>2122</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1446098</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,49 +3347,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>1953</v>
+        <v>173412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>1163</v>
+        <v>173301</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>480</v>
+      </c>
+      <c r="N14" s="7">
+        <v>346712</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3117</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,55 +3398,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1953</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1163</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3117</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1062</v>
+      </c>
+      <c r="D17" s="7">
+        <v>742891</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1060</v>
+      </c>
+      <c r="I17" s="7">
+        <v>703208</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2122</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1446098</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>13</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1007-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12BFA93B-DACB-4CE7-89D7-576F045D182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF1425C-5E98-4B0A-84C8-77A7BD7FDCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{199CA738-F152-4B76-A7F7-806E3E31C5B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F04D8EB9-D19A-4947-BE70-8D8631031E09}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="154">
   <si>
     <t>Menores según si padecen trastornos convulsivos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -109,13 +109,13 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -124,22 +124,22 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,89%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,76%</t>
+    <t>98,91%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -151,7 +151,7 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>2,64%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -160,13 +160,13 @@
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>96,74%</t>
+    <t>97,36%</t>
   </si>
   <si>
     <t>99,0%</t>
@@ -175,7 +175,7 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,63%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -184,13 +184,13 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>1,55%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,21%</t>
+    <t>2,19%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -199,25 +199,25 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,45%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>97,79%</t>
+    <t>97,81%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,68%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>99,85%</t>
@@ -226,7 +226,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -235,259 +235,271 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,46%</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
   </si>
 </sst>
 </file>
@@ -899,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C2D7D1-3312-4E5E-88A8-84C9B6EC8AB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E235BE-9E1A-494C-A0B9-C0F15A25599D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1676,10 +1688,10 @@
         <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,10 +1709,10 @@
         <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>1015</v>
@@ -1709,13 +1721,13 @@
         <v>679283</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>2096</v>
@@ -1724,13 +1736,13 @@
         <v>1398715</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,7 +1798,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EBF14A-628E-47F6-AEC2-3C72204B2321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31E6D8C-6CE5-4BC3-BD9F-F4690D6E3400}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1823,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1936,7 +1948,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -1945,13 +1957,13 @@
         <v>568</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -1960,13 +1972,13 @@
         <v>568</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1984,7 +1996,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -1996,10 +2008,10 @@
         <v>145713</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2011,10 +2023,10 @@
         <v>290226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2091,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2106,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2115,13 +2127,13 @@
         <v>896</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2154,7 +2166,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2166,10 +2178,10 @@
         <v>500680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2246,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2261,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2276,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2306,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2309,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2324,7 +2336,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2395,13 +2407,13 @@
         <v>687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2416,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2425,13 +2437,13 @@
         <v>687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,10 +2458,10 @@
         <v>177270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2464,7 +2476,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2476,10 +2488,10 @@
         <v>348607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2550,7 +2562,7 @@
         <v>687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -2571,7 +2583,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2583,10 +2595,10 @@
         <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2613,7 @@
         <v>747455</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>58</v>
@@ -2619,7 +2631,7 @@
         <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2634,10 +2646,10 @@
         <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2705,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2713,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB183DF2-50F0-483B-AC1D-DC6FB1F1C387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1BFE43-2103-4EFB-9A44-46251C4353C3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,7 +2742,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2843,7 +2855,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2858,7 +2870,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2867,13 +2879,13 @@
         <v>692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2903,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2906,7 +2918,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2918,10 +2930,10 @@
         <v>255126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2992,13 +3004,13 @@
         <v>626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3007,13 +3019,13 @@
         <v>1163</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3028,7 +3040,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,10 +3055,10 @@
         <v>257435</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3058,10 +3070,10 @@
         <v>209354</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3076,7 +3088,7 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3153,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3168,7 +3180,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3201,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3216,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3231,7 +3243,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3302,13 +3314,13 @@
         <v>636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3323,7 +3335,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3332,13 +3344,13 @@
         <v>636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,10 +3365,10 @@
         <v>173412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3371,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3383,10 +3395,10 @@
         <v>346712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3463,7 +3475,7 @@
         <v>64</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3478,7 +3490,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3487,13 +3499,13 @@
         <v>3117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3508,13 +3520,13 @@
         <v>742891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>1060</v>
@@ -3523,10 +3535,10 @@
         <v>703208</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3538,13 +3550,13 @@
         <v>1446098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3612,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF1425C-5E98-4B0A-84C8-77A7BD7FDCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A3CED8-455C-4B28-ADE7-7D4851E99B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F04D8EB9-D19A-4947-BE70-8D8631031E09}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{181A72FA-3587-4A60-89E1-1D8C6637168D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si padecen trastornos convulsivos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -79,12 +79,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
@@ -94,28 +94,28 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -124,22 +124,22 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,96%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,89%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -148,244 +148,250 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>97,0%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,63%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>99,6%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -394,28 +400,28 @@
     <t>Menores según si padecen trastornos convulsivos en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
     <t>0,91%</t>
   </si>
   <si>
+    <t>3,76%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
     <t>99,09%</t>
   </si>
   <si>
+    <t>96,24%</t>
+  </si>
+  <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>98,65%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -424,13 +430,13 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>99,76%</t>
@@ -439,43 +445,40 @@
     <t>98,78%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>98,74%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>99,3%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -487,16 +490,13 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
     <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -911,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E235BE-9E1A-494C-A0B9-C0F15A25599D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEC7504-3509-4F6D-9BE3-004ED4D3143B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1080,10 +1080,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>121380</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1095,10 +1095,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>121380</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1131,25 +1131,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1184,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1426</v>
+        <v>524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>524</v>
+        <v>1426</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -1235,28 +1235,28 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D8" s="7">
-        <v>252330</v>
+        <v>252681</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I8" s="7">
-        <v>252681</v>
+        <v>252330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
@@ -1286,25 +1286,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1339,31 +1339,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1200</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>38</v>
@@ -1390,34 +1390,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>210</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>140315</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127548</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
         <v>401</v>
@@ -1441,25 +1441,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1494,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>642</v>
+        <v>1214</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
@@ -1509,10 +1509,10 @@
         <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1214</v>
+        <v>642</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -1545,10 +1545,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D14" s="7">
-        <v>205407</v>
+        <v>192883</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
@@ -1560,10 +1560,10 @@
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="I14" s="7">
-        <v>192883</v>
+        <v>205407</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>56</v>
@@ -1596,25 +1596,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1649,28 +1649,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1738</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>3268</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1738</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>64</v>
@@ -1700,28 +1700,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="7">
+        <v>679283</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7">
         <v>1081</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>719432</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>679283</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>72</v>
@@ -1751,25 +1751,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1818,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31E6D8C-6CE5-4BC3-BD9F-F4690D6E3400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFE831D-2258-424E-A7D1-223FAE236033}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1936,31 +1936,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>568</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>568</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>81</v>
@@ -1978,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,34 +1987,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D5" s="7">
-        <v>144513</v>
+        <v>145713</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>145713</v>
+        <v>144513</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>422</v>
@@ -2023,10 +2023,10 @@
         <v>290226</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2038,25 +2038,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2091,34 +2091,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>896</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>896</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2127,13 +2127,13 @@
         <v>896</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,34 +2142,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>336</v>
+      </c>
+      <c r="D8" s="7">
+        <v>233580</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7">
         <v>371</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>267101</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>336</v>
-      </c>
-      <c r="I8" s="7">
-        <v>233580</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>707</v>
@@ -2178,10 +2178,10 @@
         <v>500680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2193,25 +2193,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2258,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,31 +2297,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D11" s="7">
-        <v>158571</v>
+        <v>154834</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="I11" s="7">
-        <v>154834</v>
+        <v>158571</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2336,7 +2336,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2348,25 +2348,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2401,34 +2401,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>687</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2443,7 +2443,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,34 +2452,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>261</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>177270</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171337</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>504</v>
@@ -2488,10 +2488,10 @@
         <v>348607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2503,25 +2503,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2556,34 +2556,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>687</v>
+        <v>1464</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>1464</v>
+        <v>687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2592,7 +2592,7 @@
         <v>2151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>111</v>
@@ -2607,31 +2607,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1065</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>747455</v>
+        <v>705464</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>1016</v>
+        <v>1065</v>
       </c>
       <c r="I17" s="7">
-        <v>705464</v>
+        <v>747455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2643,13 +2643,13 @@
         <v>1452919</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,25 +2658,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2725,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1BFE43-2103-4EFB-9A44-46251C4353C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E41544-7052-49D7-8747-F599A34A48A6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2742,7 +2742,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2843,34 +2843,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>692</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2879,13 +2879,13 @@
         <v>692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,34 +2894,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>186</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>123472</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>397</v>
@@ -2930,10 +2930,10 @@
         <v>255126</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2945,25 +2945,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>626</v>
+        <v>1163</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1163</v>
+        <v>626</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>128</v>
@@ -3049,10 +3049,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>257435</v>
+        <v>209354</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>131</v>
@@ -3064,10 +3064,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="I8" s="7">
-        <v>209354</v>
+        <v>257435</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>133</v>
@@ -3100,25 +3100,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3165,7 +3165,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3204,31 +3204,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>188572</v>
+        <v>188899</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I11" s="7">
-        <v>188899</v>
+        <v>188572</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3255,25 +3255,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3308,34 +3308,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>636</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3344,13 +3344,13 @@
         <v>636</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,34 +3359,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
         <v>234</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>173412</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>173301</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>480</v>
@@ -3395,10 +3395,10 @@
         <v>346712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3410,25 +3410,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3463,34 +3463,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1953</v>
+        <v>1163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1163</v>
+        <v>1953</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3499,13 +3499,13 @@
         <v>3117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,34 +3514,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D17" s="7">
-        <v>742891</v>
+        <v>703208</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="I17" s="7">
-        <v>703208</v>
+        <v>742891</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>2122</v>
@@ -3550,10 +3550,10 @@
         <v>1446098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>153</v>
@@ -3565,25 +3565,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
